--- a/result/03/对比.xlsx
+++ b/result/03/对比.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\homework\GPU_CUDA\homework\result\03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195B2BD9-ED65-49FF-9500-21775CC7DDAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FF507D-9276-405E-A8D1-492B986C84BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -190,7 +190,28 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -335,19 +356,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.5</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54.2</c:v>
+                  <c:v>63.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100.7</c:v>
+                  <c:v>130.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>208.8</c:v>
+                  <c:v>264.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>555</c:v>
+                  <c:v>611.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -419,16 +440,16 @@
                   <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.3</c:v>
+                  <c:v>28.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54.3</c:v>
+                  <c:v>58.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>111</c:v>
+                  <c:v>111.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>284.10000000000002</c:v>
+                  <c:v>273</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -509,7 +530,7 @@
                   <c:v>85.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>213.2</c:v>
+                  <c:v>168.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -590,7 +611,7 @@
                   <c:v>89.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>209.4</c:v>
+                  <c:v>187.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1770,7 +1791,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1906,7 +1927,7 @@
         <v>100000</v>
       </c>
       <c r="B11">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="C11">
         <v>0.6</v>
@@ -1923,10 +1944,10 @@
         <v>5000000</v>
       </c>
       <c r="B12">
-        <v>54.2</v>
+        <v>63.2</v>
       </c>
       <c r="C12">
-        <v>28.3</v>
+        <v>28.8</v>
       </c>
       <c r="D12">
         <v>23.9</v>
@@ -1940,10 +1961,10 @@
         <v>10000000</v>
       </c>
       <c r="B13">
-        <v>100.7</v>
+        <v>130.6</v>
       </c>
       <c r="C13">
-        <v>54.3</v>
+        <v>58.1</v>
       </c>
       <c r="D13">
         <v>45.5</v>
@@ -1957,10 +1978,10 @@
         <v>20000000</v>
       </c>
       <c r="B14">
-        <v>208.8</v>
+        <v>264.5</v>
       </c>
       <c r="C14">
-        <v>111</v>
+        <v>111.5</v>
       </c>
       <c r="D14">
         <v>85.5</v>
@@ -1974,20 +1995,26 @@
         <v>50000000</v>
       </c>
       <c r="B15">
-        <v>555</v>
+        <v>611.4</v>
       </c>
       <c r="C15">
-        <v>284.10000000000002</v>
+        <v>273</v>
       </c>
       <c r="D15">
-        <v>213.2</v>
+        <v>168.8</v>
       </c>
       <c r="E15">
-        <v>209.4</v>
+        <v>187.8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:E14">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
